--- a/biology/Microbiologie/Heliophryidae/Heliophryidae.xlsx
+++ b/biology/Microbiologie/Heliophryidae/Heliophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heliophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Heliophrya, dérivé du grec ancien ηλιος / helios, « soleil »,
 , et de οφρύς / ophrýs, « sourcil ».
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Lynn, les Heliophryidae sont de taille petite à moyenne. Leur trophont est aplati latéralement ou rarement en forme de sac. Ils ont une lorica ou stylotheca, tectineuse ; des tentacules, claviformes, disposés en fascicules ; un macronoyau, ellipsoïde, rubané ou ramifié ; un micronoyau ; généralement plusieurs vacuoles contractiles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Lynn, les Heliophryidae sont de taille petite à moyenne. Leur trophont est aplati latéralement ou rarement en forme de sac. Ils ont une lorica ou stylotheca, tectineuse ; des tentacules, claviformes, disposés en fascicules ; un macronoyau, ellipsoïde, rubané ou ramifié ; un micronoyau ; généralement plusieurs vacuoles contractiles.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heliophryidae vivent dans des habitats d'eau douce, librement dans le périphyton, ou comme ectocommensaux sur des invertébrés[1].
-Selon GBIF       (17 mai 2023)[2], cette famille est largement répartie sur le globe principalement en milieu marin.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heliophryidae vivent dans des habitats d'eau douce, librement dans le périphyton, ou comme ectocommensaux sur des invertébrés.
+Selon GBIF       (17 mai 2023), cette famille est largement répartie sur le globe principalement en milieu marin.
 </t>
         </is>
       </c>
@@ -606,17 +624,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 mai 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 mai 2023) :
 Heliophrya Saedeleer &amp; Tellier, 1933
-Synonymes[3] :
+Synonymes :
 Synonyme objectif : Platophrya Gönnert 1935
 Synonymes subjectifs : Craspedophrya Jankowski 1981 ; Paraheliophrya , Jankowski, 1978
 Espèce type : Heliophrya collini Saedeleer &amp; Tellier, 1933
 Synonyme : Heliophrya rotunda (Hentschel, 1916) Matthes, 1954
 Sphaeracineta Jankowski, 1987
-Selon Lynn (2008)[1] et Mingzhen Ma et ses collaborateurs (2021)[4] :
+Selon Lynn (2008) et Mingzhen Ma et ses collaborateurs (2021) :
 Cyclophrya Gönnert, 1935
 Heliophrya Saedeleer &amp; Tellier, 1930</t>
         </is>
@@ -646,13 +666,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Heliophryidae Corliss, 1979[5].
-À la suite d'analyses génétiques Mingzhen Ma et ses collaborateurs (2021)[4] proposent :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Heliophryidae Corliss, 1979.
+À la suite d'analyses génétiques Mingzhen Ma et ses collaborateurs (2021) proposent :
 de classer le genre Heliophrya dans l'ordre des Endogenida ;
 de classer le genre Cyclophrya dans l'ordre des Evaginogenida.
-Ces deux ordres reconnus par The Taxonomicon[6],[7] ne le sont pas dans la base GBIF.
+Ces deux ordres reconnus par The Taxonomicon, ne le sont pas dans la base GBIF.
 </t>
         </is>
       </c>
